--- a/data/trans_camb/P18_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_5_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-16,19</t>
+          <t>-14,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-17,63</t>
+          <t>-18,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,89</t>
+          <t>-15,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,8</t>
+          <t>-18,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>-19,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,28</t>
+          <t>-9,39</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,22</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-15,08</t>
+          <t>-11,37</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,14</t>
+          <t>-16,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-13,64</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-11,67</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-15,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -6,31</t>
+          <t>-25,87; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,32; -11,33</t>
+          <t>-31,07; -9,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,56; -8,54</t>
+          <t>-27,93; -6,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,5; -16,11</t>
+          <t>-31,31; -10,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,08; -6,33</t>
+          <t>-27,24; -11,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -6,71</t>
+          <t>-18,1; -1,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -13,72</t>
+          <t>-17,34; 0,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -10,79</t>
+          <t>-20,01; -2,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,33; -9,63</t>
+          <t>-24,14; -7,84</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-20,61; -7,32</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-18,46; -5,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; -9,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-60,38%</t>
+          <t>-50,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-65,76%</t>
+          <t>-65,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-55,52%</t>
+          <t>-53,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-67,99%</t>
+          <t>-66,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>-64,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-41,43%</t>
+          <t>-31,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-64,83%</t>
+          <t>-28,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>-38,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-47,71%</t>
+          <t>-58,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-47,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-40,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-51,85%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,75; -23,16</t>
+          <t>-77,06; 35,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,61; -48,86</t>
+          <t>-80,95; -40,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,01; -36,46</t>
+          <t>-74,33; -21,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,68; -54,81</t>
+          <t>-83,11; -41,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,32; -21,63</t>
+          <t>-79,2; -46,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,76; -22,93</t>
+          <t>-53,77; -5,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -49,82</t>
+          <t>-51,9; 1,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,6; -39,45</t>
+          <t>-58,98; -7,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-58,74; -34,26</t>
+          <t>-73,76; -26,06</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-62,34; -28,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-55,9; -20,96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-65,65; -34,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-17,15</t>
+          <t>-16,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,55</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,37</t>
+          <t>-14,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-20,61</t>
+          <t>-11,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,76</t>
+          <t>-23,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,9</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-19,05</t>
+          <t>-19,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-16,41</t>
+          <t>-20,47</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-16,39</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-17,72</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-11,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,94; -10,23</t>
+          <t>-24,08; -8,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,17; -6,38</t>
+          <t>-22,51; -5,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -8,63</t>
+          <t>-22,46; -6,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,99; -13,18</t>
+          <t>-20,07; -1,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -7,62</t>
+          <t>-33,06; -15,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,25; -7,67</t>
+          <t>-27,79; -9,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,3; -13,69</t>
+          <t>-28,97; -11,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,81; -8,97</t>
+          <t>-23,59; 2,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,59; -10,37</t>
+          <t>-26,49; -14,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-23,43; -10,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-24,69; -11,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-19,12; -2,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-71,32%</t>
+          <t>-73,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-56,35%</t>
+          <t>-63,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-68,1%</t>
+          <t>-65,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-61,89%</t>
+          <t>-49,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-47,32%</t>
+          <t>-70,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,73%</t>
+          <t>-52,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-65,66%</t>
+          <t>-58,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-51,45%</t>
+          <t>-36,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-56,57%</t>
+          <t>-71,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-57,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-61,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-41,81%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,67; -48,95</t>
+          <t>-88,29; -43,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,12; -27,73</t>
+          <t>-82,22; -33,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,37; -43,48</t>
+          <t>-82,66; -34,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,83; -42,03</t>
+          <t>-74,14; -8,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,64; -25,36</t>
+          <t>-83,91; -51,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,64; -23,79</t>
+          <t>-70,72; -30,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,05; -52,08</t>
+          <t>-74,92; -34,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,05; -35,47</t>
+          <t>-62,18; 12,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,1; -40,21</t>
+          <t>-82,07; -56,66</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-70,64; -37,84</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-74,91; -45,51</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-60,26; -8,37</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>16,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,2</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-16,1</t>
+          <t>-18,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,31</t>
+          <t>-17,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,93</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>-21,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-9,65</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,69</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-13,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 5,72</t>
+          <t>-19,46; 21,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 11,67</t>
+          <t>-15,6; 28,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 29,43</t>
+          <t>-11,13; 55,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,14; -7,41</t>
+          <t>-24,45; 13,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -2,98</t>
+          <t>-37,25; -2,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,87; -2,68</t>
+          <t>-35,33; -0,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -3,23</t>
+          <t>-27,95; 12,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 1,49</t>
+          <t>-39,21; -7,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 10,79</t>
+          <t>-23,27; 4,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 6,81</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-14,32; 27,84</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-27,67; -0,0</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,6%</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>124,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-72,92%</t>
+          <t>-36,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-61,14%</t>
+          <t>-65,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-54,36%</t>
+          <t>-62,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-60,48%</t>
+          <t>-32,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>-76,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-27,84%</t>
+          <t>-45,87%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-31,8%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-63,87%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,57; 99,51</t>
+          <t>-100,0; 535,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,0; 151,65</t>
+          <t>-74,56; 608,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 497,06</t>
+          <t>-77,47; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-91,82; -30,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,74; -11,35</t>
+          <t>-91,79; 6,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,34; -9,71</t>
+          <t>-91,59; 6,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,99; -18,18</t>
+          <t>-71,83; 83,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-68,54; 14,2</t>
+          <t>-94,29; -18,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,06; 98,53</t>
+          <t>-79,94; 43,92</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-77,23; 47,93</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-54,72; 227,7</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-90,64; 12,29</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,24</t>
+          <t>-13,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,9</t>
+          <t>-14,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,37</t>
+          <t>-11,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-21,07</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,39</t>
+          <t>-21,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>-13,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-18,34</t>
+          <t>-13,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-12,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>-17,6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-14,06</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-12,56</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-13,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -10,3</t>
+          <t>-20,63; -3,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -8,79</t>
+          <t>-21,84; -8,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -8,39</t>
+          <t>-19,74; -2,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,66; -16,86</t>
+          <t>-22,05; -8,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -9,9</t>
+          <t>-26,15; -15,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -9,79</t>
+          <t>-19,84; -7,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,56; -14,72</t>
+          <t>-19,38; -7,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -10,96</t>
+          <t>-19,25; -4,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -10,39</t>
+          <t>-22,15; -12,34</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-19,0; -9,91</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-17,38; -7,18</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; -8,34</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-63,21%</t>
+          <t>-56,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-57,65%</t>
+          <t>-58,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-55,46%</t>
+          <t>-47,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-65,85%</t>
+          <t>-58,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-44,98%</t>
+          <t>-67,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,21%</t>
+          <t>-43,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-64,82%</t>
+          <t>-41,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-50,29%</t>
+          <t>-41,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-49,81%</t>
+          <t>-62,82%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-50,17%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-44,84%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-48,84%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,05; -43,1</t>
+          <t>-73,82; -5,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,49; -41,7</t>
+          <t>-73,54; -39,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,07; -35,53</t>
+          <t>-67,63; -4,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,14; -56,39</t>
+          <t>-72,75; -37,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,99; -32,52</t>
+          <t>-77,03; -55,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,2; -32,62</t>
+          <t>-56,81; -26,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,81; -53,95</t>
+          <t>-55,97; -24,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -41,42</t>
+          <t>-56,9; -16,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,77; -38,53</t>
+          <t>-72,52; -45,73</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-60,49; -38,25</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-56,1; -25,31</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-59,99; -31,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
